--- a/data/Book1.xlsx
+++ b/data/Book1.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Git_Mehmet\training-downloads\git\ghsc\data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="480" yWindow="30" windowWidth="17235" windowHeight="6990"/>
   </bookViews>
@@ -11,7 +16,7 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -207,186 +212,6 @@
     <t>rc2_10_10</t>
   </si>
   <si>
-    <t>C1_10_1.TXT</t>
-  </si>
-  <si>
-    <t>C1_10_10.TXT</t>
-  </si>
-  <si>
-    <t>C1_10_2.TXT</t>
-  </si>
-  <si>
-    <t>C1_10_3.TXT</t>
-  </si>
-  <si>
-    <t>C1_10_4.TXT</t>
-  </si>
-  <si>
-    <t>C1_10_5.TXT</t>
-  </si>
-  <si>
-    <t>C1_10_6.TXT</t>
-  </si>
-  <si>
-    <t>C1_10_7.TXT</t>
-  </si>
-  <si>
-    <t>C1_10_8.TXT</t>
-  </si>
-  <si>
-    <t>C1_10_9.TXT</t>
-  </si>
-  <si>
-    <t>C2_10_1.TXT</t>
-  </si>
-  <si>
-    <t>C2_10_10.TXT</t>
-  </si>
-  <si>
-    <t>C2_10_2.TXT</t>
-  </si>
-  <si>
-    <t>C2_10_3.TXT</t>
-  </si>
-  <si>
-    <t>C2_10_4.TXT</t>
-  </si>
-  <si>
-    <t>C2_10_5.TXT</t>
-  </si>
-  <si>
-    <t>C2_10_6.TXT</t>
-  </si>
-  <si>
-    <t>C2_10_7.TXT</t>
-  </si>
-  <si>
-    <t>C2_10_8.TXT</t>
-  </si>
-  <si>
-    <t>C2_10_9.TXT</t>
-  </si>
-  <si>
-    <t>R1_10_1.TXT</t>
-  </si>
-  <si>
-    <t>R1_10_10.TXT</t>
-  </si>
-  <si>
-    <t>R1_10_2.TXT</t>
-  </si>
-  <si>
-    <t>R1_10_3.TXT</t>
-  </si>
-  <si>
-    <t>R1_10_4.TXT</t>
-  </si>
-  <si>
-    <t>R1_10_5.TXT</t>
-  </si>
-  <si>
-    <t>R1_10_6.TXT</t>
-  </si>
-  <si>
-    <t>R1_10_7.TXT</t>
-  </si>
-  <si>
-    <t>R1_10_8.TXT</t>
-  </si>
-  <si>
-    <t>R1_10_9.TXT</t>
-  </si>
-  <si>
-    <t>R2_10_1.TXT</t>
-  </si>
-  <si>
-    <t>R2_10_10.TXT</t>
-  </si>
-  <si>
-    <t>R2_10_2.TXT</t>
-  </si>
-  <si>
-    <t>R2_10_3.TXT</t>
-  </si>
-  <si>
-    <t>R2_10_4.TXT</t>
-  </si>
-  <si>
-    <t>R2_10_5.TXT</t>
-  </si>
-  <si>
-    <t>R2_10_6.TXT</t>
-  </si>
-  <si>
-    <t>R2_10_7.TXT</t>
-  </si>
-  <si>
-    <t>R2_10_8.TXT</t>
-  </si>
-  <si>
-    <t>R2_10_9.TXT</t>
-  </si>
-  <si>
-    <t>RC1_10_1.TXT</t>
-  </si>
-  <si>
-    <t>RC1_10_10.TXT</t>
-  </si>
-  <si>
-    <t>RC1_10_2.TXT</t>
-  </si>
-  <si>
-    <t>RC1_10_3.TXT</t>
-  </si>
-  <si>
-    <t>RC1_10_4.TXT</t>
-  </si>
-  <si>
-    <t>RC1_10_5.TXT</t>
-  </si>
-  <si>
-    <t>RC1_10_6.TXT</t>
-  </si>
-  <si>
-    <t>RC1_10_7.TXT</t>
-  </si>
-  <si>
-    <t>RC1_10_8.TXT</t>
-  </si>
-  <si>
-    <t>RC1_10_9.TXT</t>
-  </si>
-  <si>
-    <t>RC2_10_1.TXT</t>
-  </si>
-  <si>
-    <t>RC2_10_10.TXT</t>
-  </si>
-  <si>
-    <t>RC2_10_2.TXT</t>
-  </si>
-  <si>
-    <t>RC2_10_3.TXT</t>
-  </si>
-  <si>
-    <t>RC2_10_4.TXT</t>
-  </si>
-  <si>
-    <t>RC2_10_5.TXT</t>
-  </si>
-  <si>
-    <t>RC2_10_6.TXT</t>
-  </si>
-  <si>
-    <t>RC2_10_7.TXT</t>
-  </si>
-  <si>
-    <t>RC2_10_8.TXT</t>
-  </si>
-  <si>
-    <t>RC2_10_9.TXT</t>
-  </si>
-  <si>
     <t>dif v</t>
   </si>
   <si>
@@ -397,6 +222,186 @@
   </si>
   <si>
     <t>KM Better</t>
+  </si>
+  <si>
+    <t>C1_10_1</t>
+  </si>
+  <si>
+    <t>C1_10_10</t>
+  </si>
+  <si>
+    <t>C1_10_2</t>
+  </si>
+  <si>
+    <t>C1_10_3</t>
+  </si>
+  <si>
+    <t>C1_10_4</t>
+  </si>
+  <si>
+    <t>C1_10_5</t>
+  </si>
+  <si>
+    <t>C1_10_6</t>
+  </si>
+  <si>
+    <t>C1_10_7</t>
+  </si>
+  <si>
+    <t>C1_10_8</t>
+  </si>
+  <si>
+    <t>C1_10_9</t>
+  </si>
+  <si>
+    <t>C2_10_1</t>
+  </si>
+  <si>
+    <t>C2_10_10</t>
+  </si>
+  <si>
+    <t>C2_10_2</t>
+  </si>
+  <si>
+    <t>C2_10_3</t>
+  </si>
+  <si>
+    <t>C2_10_4</t>
+  </si>
+  <si>
+    <t>C2_10_5</t>
+  </si>
+  <si>
+    <t>C2_10_6</t>
+  </si>
+  <si>
+    <t>C2_10_7</t>
+  </si>
+  <si>
+    <t>C2_10_8</t>
+  </si>
+  <si>
+    <t>C2_10_9</t>
+  </si>
+  <si>
+    <t>R1_10_1</t>
+  </si>
+  <si>
+    <t>R1_10_10</t>
+  </si>
+  <si>
+    <t>R1_10_2</t>
+  </si>
+  <si>
+    <t>R1_10_3</t>
+  </si>
+  <si>
+    <t>R1_10_4</t>
+  </si>
+  <si>
+    <t>R1_10_5</t>
+  </si>
+  <si>
+    <t>R1_10_6</t>
+  </si>
+  <si>
+    <t>R1_10_7</t>
+  </si>
+  <si>
+    <t>R1_10_8</t>
+  </si>
+  <si>
+    <t>R1_10_9</t>
+  </si>
+  <si>
+    <t>R2_10_1</t>
+  </si>
+  <si>
+    <t>R2_10_10</t>
+  </si>
+  <si>
+    <t>R2_10_2</t>
+  </si>
+  <si>
+    <t>R2_10_3</t>
+  </si>
+  <si>
+    <t>R2_10_4</t>
+  </si>
+  <si>
+    <t>R2_10_5</t>
+  </si>
+  <si>
+    <t>R2_10_6</t>
+  </si>
+  <si>
+    <t>R2_10_7</t>
+  </si>
+  <si>
+    <t>R2_10_8</t>
+  </si>
+  <si>
+    <t>R2_10_9</t>
+  </si>
+  <si>
+    <t>RC1_10_1</t>
+  </si>
+  <si>
+    <t>RC1_10_10</t>
+  </si>
+  <si>
+    <t>RC1_10_2</t>
+  </si>
+  <si>
+    <t>RC1_10_3</t>
+  </si>
+  <si>
+    <t>RC1_10_4</t>
+  </si>
+  <si>
+    <t>RC1_10_5</t>
+  </si>
+  <si>
+    <t>RC1_10_6</t>
+  </si>
+  <si>
+    <t>RC1_10_7</t>
+  </si>
+  <si>
+    <t>RC1_10_8</t>
+  </si>
+  <si>
+    <t>RC1_10_9</t>
+  </si>
+  <si>
+    <t>RC2_10_1</t>
+  </si>
+  <si>
+    <t>RC2_10_10</t>
+  </si>
+  <si>
+    <t>RC2_10_2</t>
+  </si>
+  <si>
+    <t>RC2_10_3</t>
+  </si>
+  <si>
+    <t>RC2_10_4</t>
+  </si>
+  <si>
+    <t>RC2_10_5</t>
+  </si>
+  <si>
+    <t>RC2_10_6</t>
+  </si>
+  <si>
+    <t>RC2_10_7</t>
+  </si>
+  <si>
+    <t>RC2_10_8</t>
+  </si>
+  <si>
+    <t>RC2_10_9</t>
   </si>
 </sst>
 </file>
@@ -452,6 +457,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -499,7 +507,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -534,7 +542,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -745,8 +753,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J63"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J32" sqref="J32"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="F62" sqref="F62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="30.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -783,16 +791,16 @@
         <v>2</v>
       </c>
       <c r="G1" t="s">
-        <v>123</v>
+        <v>63</v>
       </c>
       <c r="H1" t="s">
-        <v>124</v>
+        <v>64</v>
       </c>
       <c r="I1" t="s">
-        <v>125</v>
+        <v>65</v>
       </c>
       <c r="J1" t="s">
-        <v>126</v>
+        <v>66</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
@@ -806,7 +814,7 @@
         <v>42478.95</v>
       </c>
       <c r="D2" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="E2">
         <v>101</v>
@@ -842,7 +850,7 @@
         <v>39923.410000000003</v>
       </c>
       <c r="D3" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="E3">
         <v>100</v>
@@ -878,7 +886,7 @@
         <v>42247.05</v>
       </c>
       <c r="D4" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="E4">
         <v>102</v>
@@ -914,7 +922,7 @@
         <v>40101.360000000001</v>
       </c>
       <c r="D5" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="E5">
         <v>101</v>
@@ -950,7 +958,7 @@
         <v>39468.6</v>
       </c>
       <c r="D6" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="E6">
         <v>100</v>
@@ -986,7 +994,7 @@
         <v>42469.18</v>
       </c>
       <c r="D7" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="E7">
         <v>100</v>
@@ -1022,7 +1030,7 @@
         <v>43830.21</v>
       </c>
       <c r="D8" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="E8">
         <v>102</v>
@@ -1058,7 +1066,7 @@
         <v>43453.919999999998</v>
       </c>
       <c r="D9" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="E9">
         <v>101</v>
@@ -1094,7 +1102,7 @@
         <v>44092.74</v>
       </c>
       <c r="D10" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="E10">
         <v>102</v>
@@ -1130,7 +1138,7 @@
         <v>40546.6</v>
       </c>
       <c r="D11" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="E11">
         <v>100</v>
@@ -1166,7 +1174,7 @@
         <v>16879.240000000002</v>
       </c>
       <c r="D12" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="E12">
         <v>37</v>
@@ -1202,7 +1210,7 @@
         <v>15944.72</v>
       </c>
       <c r="D13" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="E13">
         <v>36</v>
@@ -1238,7 +1246,7 @@
         <v>17126.39</v>
       </c>
       <c r="D14" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="E14">
         <v>35</v>
@@ -1274,7 +1282,7 @@
         <v>16884.080000000002</v>
       </c>
       <c r="D15" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="E15">
         <v>36</v>
@@ -1310,7 +1318,7 @@
         <v>15656.75</v>
       </c>
       <c r="D16" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="E16">
         <v>36</v>
@@ -1346,7 +1354,7 @@
         <v>16561.29</v>
       </c>
       <c r="D17" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="E17">
         <v>36</v>
@@ -1382,7 +1390,7 @@
         <v>16920.330000000002</v>
       </c>
       <c r="D18" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="E18">
         <v>37</v>
@@ -1418,7 +1426,7 @@
         <v>17882.419999999998</v>
       </c>
       <c r="D19" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="E19">
         <v>38</v>
@@ -1454,7 +1462,7 @@
         <v>16577.32</v>
       </c>
       <c r="D20" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="E20">
         <v>37</v>
@@ -1490,7 +1498,7 @@
         <v>16370.44</v>
       </c>
       <c r="D21" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="E21">
         <v>36</v>
@@ -1526,21 +1534,21 @@
         <v>53501.39</v>
       </c>
       <c r="D22" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="E22">
-        <v>110</v>
+        <v>124</v>
       </c>
       <c r="F22">
-        <v>63640.983416082898</v>
+        <v>63020.593346907801</v>
       </c>
       <c r="G22">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="H22">
         <f t="shared" si="1"/>
-        <v>10139.593416082898</v>
+        <v>9519.2033469078015</v>
       </c>
       <c r="I22" t="b">
         <f t="shared" si="2"/>
@@ -1562,7 +1570,7 @@
         <v>48294.71</v>
       </c>
       <c r="D23" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="E23">
         <v>97</v>
@@ -1598,7 +1606,7 @@
         <v>49105.21</v>
       </c>
       <c r="D24" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="E24">
         <v>110</v>
@@ -1634,7 +1642,7 @@
         <v>45235.85</v>
       </c>
       <c r="D25" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="E25">
         <v>117</v>
@@ -1670,7 +1678,7 @@
         <v>42787.19</v>
       </c>
       <c r="D26" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="E26">
         <v>111</v>
@@ -1706,7 +1714,7 @@
         <v>51830.36</v>
       </c>
       <c r="D27" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="E27">
         <v>99</v>
@@ -1742,7 +1750,7 @@
         <v>47832.22</v>
       </c>
       <c r="D28" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="E28">
         <v>110</v>
@@ -1778,7 +1786,7 @@
         <v>44435.5</v>
       </c>
       <c r="D29" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="E29">
         <v>106</v>
@@ -1814,7 +1822,7 @@
         <v>42485.38</v>
       </c>
       <c r="D30" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="E30">
         <v>103</v>
@@ -1850,7 +1858,7 @@
         <v>50490.49</v>
       </c>
       <c r="D31" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="E31">
         <v>99</v>
@@ -1886,7 +1894,7 @@
         <v>42188.86</v>
       </c>
       <c r="D32" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="E32">
         <v>33</v>
@@ -1922,7 +1930,7 @@
         <v>30215.24</v>
       </c>
       <c r="D33" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="E33">
         <v>26</v>
@@ -1958,7 +1966,7 @@
         <v>33459.32</v>
       </c>
       <c r="D34" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="E34">
         <v>31</v>
@@ -1994,7 +2002,7 @@
         <v>24938.95</v>
       </c>
       <c r="D35" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="E35">
         <v>25</v>
@@ -2030,7 +2038,7 @@
         <v>17880.11</v>
       </c>
       <c r="D36" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="E36">
         <v>23</v>
@@ -2066,7 +2074,7 @@
         <v>36232.18</v>
       </c>
       <c r="D37" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="E37">
         <v>31</v>
@@ -2102,7 +2110,7 @@
         <v>30073.599999999999</v>
       </c>
       <c r="D38" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="E38">
         <v>25</v>
@@ -2138,7 +2146,7 @@
         <v>23253.89</v>
       </c>
       <c r="D39" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="E39">
         <v>24</v>
@@ -2174,7 +2182,7 @@
         <v>17495.509999999998</v>
       </c>
       <c r="D40" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="E40">
         <v>22</v>
@@ -2210,7 +2218,7 @@
         <v>33002.36</v>
       </c>
       <c r="D41" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="E41">
         <v>27</v>
@@ -2246,7 +2254,7 @@
         <v>46272.07</v>
       </c>
       <c r="D42" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="E42">
         <v>103</v>
@@ -2282,7 +2290,7 @@
         <v>43896.78</v>
       </c>
       <c r="D43" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="E43">
         <v>95</v>
@@ -2318,7 +2326,7 @@
         <v>44129.42</v>
       </c>
       <c r="D44" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="E44">
         <v>98</v>
@@ -2354,7 +2362,7 @@
         <v>42487.54</v>
       </c>
       <c r="D45" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="E45">
         <v>103</v>
@@ -2390,7 +2398,7 @@
         <v>41613.58</v>
       </c>
       <c r="D46" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="E46">
         <v>105</v>
@@ -2426,7 +2434,7 @@
         <v>45564.81</v>
       </c>
       <c r="D47" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="E47">
         <v>100</v>
@@ -2462,7 +2470,7 @@
         <v>45303.67</v>
       </c>
       <c r="D48" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="E48">
         <v>99</v>
@@ -2498,7 +2506,7 @@
         <v>44903.8</v>
       </c>
       <c r="D49" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="E49">
         <v>97</v>
@@ -2534,7 +2542,7 @@
         <v>44366.01</v>
       </c>
       <c r="D50" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="E50">
         <v>98</v>
@@ -2570,7 +2578,7 @@
         <v>44280.84</v>
       </c>
       <c r="D51" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="E51">
         <v>97</v>
@@ -2606,7 +2614,7 @@
         <v>30278.5</v>
       </c>
       <c r="D52" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="E52">
         <v>34</v>
@@ -2642,7 +2650,7 @@
         <v>21910.33</v>
       </c>
       <c r="D53" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="E53">
         <v>21</v>
@@ -2678,7 +2686,7 @@
         <v>26327.919999999998</v>
       </c>
       <c r="D54" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="E54">
         <v>31</v>
@@ -2714,7 +2722,7 @@
         <v>20043.04</v>
       </c>
       <c r="D55" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="E55">
         <v>25</v>
@@ -2750,7 +2758,7 @@
         <v>15741.56</v>
       </c>
       <c r="D56" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="E56">
         <v>22</v>
@@ -2786,7 +2794,7 @@
         <v>27140.77</v>
       </c>
       <c r="D57" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="E57">
         <v>30</v>
@@ -2822,7 +2830,7 @@
         <v>26797.759999999998</v>
       </c>
       <c r="D58" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="E58">
         <v>33</v>
@@ -2858,7 +2866,7 @@
         <v>25112.77</v>
       </c>
       <c r="D59" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="E59">
         <v>28</v>
@@ -2894,7 +2902,7 @@
         <v>23709.29</v>
       </c>
       <c r="D60" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="E60">
         <v>27</v>
@@ -2930,7 +2938,7 @@
         <v>23028.1</v>
       </c>
       <c r="D61" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="E61">
         <v>25</v>
@@ -2966,11 +2974,11 @@
       </c>
       <c r="E62">
         <f>SUM(E2:E61)</f>
-        <v>3973</v>
+        <v>3987</v>
       </c>
       <c r="F62">
         <f>SUM(F2:F61)</f>
-        <v>2202412.9808290973</v>
+        <v>2201792.5907599223</v>
       </c>
       <c r="I62" t="b">
         <f t="shared" si="2"/>
@@ -2984,11 +2992,11 @@
     <row r="63" spans="1:10" x14ac:dyDescent="0.25">
       <c r="E63">
         <f>E62-B62</f>
-        <v>556</v>
+        <v>570</v>
       </c>
       <c r="F63">
         <f>F62-C62</f>
-        <v>169351.10082909674</v>
+        <v>168730.7107599217</v>
       </c>
       <c r="I63" t="b">
         <f t="shared" si="2"/>
